--- a/biology/Microbiologie/Spirofilidae/Spirofilidae.xlsx
+++ b/biology/Microbiologie/Spirofilidae/Spirofilidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Spirofilidae sont une famille de Ciliés de la classe des Hypotrichea et de l’ordre des Stichotrichida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Spirofilum, de spiro-, spire, et -filum, filament, en référence aux « rangées de cirres disposées en spirale » observées sur le corps cellulaire de ce protiste[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Spirofilum, de spiro-, spire, et -filum, filament, en référence aux « rangées de cirres disposées en spirale » observées sur le corps cellulaire de ce protiste.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Kahl (1932)
 Selon Kahl, Stichotricha est un cilié de taille moyenne, ovale ou fusiforme très élancé (rond ou finement acuminé à l'arrière, et à bout émoussé). Le péristome se rétrécit comme un cou, mais ne se dilate pas en une bande longue et étroite.
@@ -550,9 +566,9 @@
 Le péristome est situé sur le côté gauche du « cou », il présente une zone membranaire épaisse dont les composants sont souvent reliés en drapeau. À l'extrémité frontale, il y a généralement trois membranes libres, longues et larges. La partie la plus à droite de cette membrane est souvent en forme d'épine ; incurvée et saillante en position de repos, elle est utilisée comme organe tactile.
 On observe une vacuole contractile à la base du péristome. Le noyau se compose généralement de deux parties ovales.
 En nageant, il virevolte comme une hélice ; au repos, il a tendance à se retirer à reculons pour s'enfouir dans des amas de détritus.
-La plupart des espèces peuvent excréter des tubes gélatineux simples qui ne sont pas des loges[3].
+La plupart des espèces peuvent excréter des tubes gélatineux simples qui ne sont pas des loges.
 Lynn (2010)
-Pour Lynn, les Spirofilidae ont une taille, petite (&lt; 80 µm) à moyenne (de 80 à 200 µm). Ils ont des formes variées : certains en forme de queue, d'autres plus allongées à leur extrémité antérieure. Certains nagent librement, d'autres ont une lorica. Leur ciliature  somatique ventrale se présente sous la forme de cirres ventraux discrets en files courbées ou en spirales disposées obliquement autour du corps ;  certaines se terminant sur la surface dorsale. Des cirres transversaux et caudaux sont présents sur certaines espèces, absents sur d'autres. La ciliature somatique dorsale se présente sous la forme de plusieurs files dorsales de poils de dikinétides en « bande dorsale » s'enroulant en hélice autour du corps. La zone adorale est peu proéminente avec une ciliature buccale typiquement parorale et endorale. Leur macronoyau est globulaire à ellipsoïde, composé de un à plusieurs nodules. Micronoyau et vacuole contractile sont présents. Un cytoprocte est probablement présent. Ils se nourrissant de bactéries, d'algues et de petits protistes[1].
+Pour Lynn, les Spirofilidae ont une taille, petite (&lt; 80 µm) à moyenne (de 80 à 200 µm). Ils ont des formes variées : certains en forme de queue, d'autres plus allongées à leur extrémité antérieure. Certains nagent librement, d'autres ont une lorica. Leur ciliature  somatique ventrale se présente sous la forme de cirres ventraux discrets en files courbées ou en spirales disposées obliquement autour du corps ;  certaines se terminant sur la surface dorsale. Des cirres transversaux et caudaux sont présents sur certaines espèces, absents sur d'autres. La ciliature somatique dorsale se présente sous la forme de plusieurs files dorsales de poils de dikinétides en « bande dorsale » s'enroulant en hélice autour du corps. La zone adorale est peu proéminente avec une ciliature buccale typiquement parorale et endorale. Leur macronoyau est globulaire à ellipsoïde, composé de un à plusieurs nodules. Micronoyau et vacuole contractile sont présents. Un cytoprocte est probablement présent. Ils se nourrissant de bactéries, d'algues et de petits protistes.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille vivent dans tous types d'habitats : marins, saumâtres, limnétiques et terrestres[2], notamment dans le thalle gélatineux d’algues vertes du genre Chaetophora[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille vivent dans tous types d'habitats : marins, saumâtres, limnétiques et terrestres, notamment dans le thalle gélatineux d’algues vertes du genre Chaetophora.
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (15 mars 2023)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (15 mars 2023) :
 Kahliella Corliss, 1960
 Metastrongylidium
 Microspiretta Jankowski, 1975
@@ -632,7 +652,7 @@
 Uroleptapsis Dragesco, 1970
 Urospinula Corliss, 1960
 Urostrongylum Kahl, 1932
-Selon Lynn (2010)[1] :
+Selon Lynn (2010) :
 Atractos Vörösváry, 1950
 Chaetospira Lachmann, 1856
 Hypotrichidium Ilowaisky, 1921
@@ -679,9 +699,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Spirofilidae von Gelei, 1929[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Spirofilidae von Gelei, 1929.
 </t>
         </is>
       </c>
